--- a/biology/Botanique/Salacia_(plante)/Salacia_(plante).xlsx
+++ b/biology/Botanique/Salacia_(plante)/Salacia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salacia est un genre de plantes appartenant à la famille des Celastraceae. 
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Salacia chinensis L.
-Selon Catalogue of Life                                  (24 juillet 2017)[3] :
+Selon Catalogue of Life                                  (24 juillet 2017) :
 Salacia acevedoi Lombardi
 Salacia adolfi-friderici Loes. ex Harms
 Salacia agasthiamalana Udayan, Yohannan &amp; Pradeep
@@ -711,7 +725,7 @@
 Salacia whytei Loes.
 Salacia wrightii Urb.
 Salacia zenkeri Loes.
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Salacia amplectens A. C. Sm.
 Salacia chinensis L.
 Salacia cordata (Miers) Mennega
@@ -723,9 +737,9 @@
 Salacia paniculata
 Salacia reticulata Wight
 Salacia scandens
-Selon ITIS      (24 juillet 2017)[5] :
+Selon ITIS      (24 juillet 2017) :
 Salacia chinensis L.
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Salacia alata De Wild.
 Salacia alwynii Mennega
 Salacia amazonica Loes.
@@ -858,7 +872,7 @@
 Salacia whytei Loes.
 Salacia wrightii Urb.
 Salacia zenkeri Loes.
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Salacia acevedoi Lombardi
 Salacia acreana A.C. Sm.
 Salacia affinis Peyr.
